--- a/docs/_static/FormatoPlaneacionComputacionales2023-10.xlsx
+++ b/docs/_static/FormatoPlaneacionComputacionales2023-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C1A6F-6AC3-437C-AAF0-A80CF36F7FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731C752-2A53-47E8-B5C1-5055BF00EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>PROYECTO DOCENTE</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>Versión del curso del semestre anterior. No se verifica, se deja solo como referencia para consulta en caso de ser necesario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aseosrías </t>
+  </si>
+  <si>
+    <t>Terminar las unidades</t>
   </si>
 </sst>
 </file>
@@ -1334,6 +1340,165 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,18 +1508,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,177 +1547,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1573,6 +1570,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1994,8 +2000,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="30" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2018,159 +2024,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="81">
         <v>16816</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="84"/>
     </row>
     <row r="8" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="88">
         <v>2</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="9">
         <v>96</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="9">
         <v>64</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="92"/>
       <c r="M8" s="10">
         <v>32</v>
       </c>
@@ -2179,20 +2185,20 @@
       <c r="A9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
     </row>
     <row r="10" spans="1:13" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
@@ -2202,39 +2208,39 @@
         <v>43</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="48" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="46" t="s">
@@ -2245,9 +2251,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="106"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="27" t="s">
         <v>5</v>
       </c>
@@ -2267,16 +2273,16 @@
         <v>39</v>
       </c>
       <c r="J12" s="47"/>
-      <c r="K12" s="102"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
     </row>
     <row r="13" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="120" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="15"/>
@@ -2290,22 +2296,24 @@
       <c r="J13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="115">
+      <c r="M13" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="111"/>
+      <c r="C14" s="56" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="16" t="s">
         <v>63</v>
@@ -2317,78 +2325,78 @@
       <c r="J14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="117" t="s">
+      <c r="K14" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="116">
+      <c r="M14" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="112"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="117" t="s">
+      <c r="I15" s="19"/>
+      <c r="J15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="116">
-        <v>0.1</v>
+        <v>65</v>
+      </c>
+      <c r="M15" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="113" t="s">
-        <v>59</v>
-      </c>
+      <c r="C16" s="55"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="117" t="s">
+      <c r="I16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="115">
-        <v>0</v>
+      <c r="L16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="42">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="111"/>
+      <c r="C17" s="57" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="16" t="s">
         <v>63</v>
@@ -2400,51 +2408,49 @@
       <c r="J17" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="117" t="s">
+      <c r="K17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="116">
+      <c r="M17" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="112"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="117" t="s">
+      <c r="I18" s="19"/>
+      <c r="J18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="116">
-        <v>0.2</v>
+        <v>65</v>
+      </c>
+      <c r="M18" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="114" t="s">
-        <v>60</v>
-      </c>
+      <c r="C19" s="58"/>
       <c r="D19" s="7"/>
       <c r="E19" s="16" t="s">
         <v>63</v>
@@ -2456,49 +2462,51 @@
       <c r="J19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="117" t="s">
+      <c r="K19" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="115">
+      <c r="M19" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="108"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="117" t="s">
+      <c r="I20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="116">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="M20" s="42">
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="108"/>
+      <c r="C21" s="56" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="16" t="s">
         <v>63</v>
@@ -2510,78 +2518,78 @@
       <c r="J21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="117" t="s">
+      <c r="K21" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="116">
+      <c r="M21" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="109"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="117" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="116">
-        <v>0.25</v>
+        <v>65</v>
+      </c>
+      <c r="M22" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="113" t="s">
-        <v>61</v>
-      </c>
+      <c r="C23" s="55"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="117" t="s">
+      <c r="I23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="115">
-        <v>0</v>
+      <c r="L23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="42">
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="111"/>
+      <c r="C24" s="56" t="s">
+        <v>62</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="16" t="s">
         <v>63</v>
@@ -2593,128 +2601,114 @@
       <c r="J24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="117" t="s">
+      <c r="K24" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="116">
+      <c r="M24" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="112"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="117" t="s">
+      <c r="I25" s="19"/>
+      <c r="J25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" s="116">
-        <v>0.25</v>
+        <v>65</v>
+      </c>
+      <c r="M25" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="113" t="s">
-        <v>62</v>
-      </c>
+      <c r="C26" s="55"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="117" t="s">
+      <c r="I26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="L26" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="111"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
+      <c r="J27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="112"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H28" s="8"/>
-      <c r="I28" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="I28" s="19"/>
       <c r="J28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" s="116">
-        <v>0.2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2731,7 +2725,7 @@
       <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2748,7 +2742,7 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="106"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="23" t="s">
         <v>29</v>
       </c>
@@ -2768,184 +2762,172 @@
       <c r="A32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
       <c r="I32" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="102"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="103"/>
+      <c r="B33" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="109"/>
       <c r="I33" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="118" t="s">
+      <c r="J33" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="120"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="117"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
-      <c r="B34" s="107" t="s">
+      <c r="A34" s="103"/>
+      <c r="B34" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="62"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
       <c r="I34" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="96"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="64"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="43"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="64"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="89"/>
       <c r="I36" s="34"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="64"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="96"/>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="64"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="89"/>
       <c r="I38" s="34"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="43"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="64"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="89"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="96"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="66"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="114"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="50"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="99"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A13:C31 I12 I11:J11 L11 A11:C11 K11:K12 D11:H18 I13:M18 D19:M31" name="Rango1"/>
+    <protectedRange sqref="I12 I11:J11 L11 A11:C11 K11:K12 D17:M26 I13:M16 D11:H16 A13:B31 C13:C26 C27:M31" name="Rango1"/>
   </protectedRanges>
-  <mergeCells count="44">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A11:A31"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F8:G8"/>
+  <mergeCells count="43">
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="J38:M38"/>
     <mergeCell ref="J39:M39"/>
     <mergeCell ref="J40:M40"/>
@@ -2962,12 +2944,23 @@
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A11:A31"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2980,39 +2973,38 @@
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" display="https://sistemascomputacionales.readthedocs.io/es/v2022.20" xr:uid="{CC0CD31C-6721-40A8-B0E2-EAEC203EEE5C}"/>
     <hyperlink ref="K13" r:id="rId2" xr:uid="{08B693DF-376B-428E-82B2-1F428EB9F2E1}"/>
-    <hyperlink ref="K14" r:id="rId3" xr:uid="{53082C2C-1CB7-47EB-918B-C5C053397431}"/>
-    <hyperlink ref="K15" r:id="rId4" xr:uid="{C9547925-0683-4E57-8862-42527FB4F0F6}"/>
-    <hyperlink ref="K17" r:id="rId5" xr:uid="{0B1F06FA-1929-4E1A-98A7-34D136D52CF6}"/>
-    <hyperlink ref="K16" r:id="rId6" xr:uid="{E2A9D7CC-272C-40AF-9EF9-FAF3937AB8E8}"/>
-    <hyperlink ref="K18" r:id="rId7" xr:uid="{1701D2AC-1D12-4120-B7A9-59BCC9A31EAE}"/>
-    <hyperlink ref="K20" r:id="rId8" xr:uid="{232EB1C0-EE65-447D-818E-9490B97E4F3B}"/>
-    <hyperlink ref="K19" r:id="rId9" xr:uid="{2AEA6C8E-9ECA-4FB4-B8C5-D2FCE5320757}"/>
-    <hyperlink ref="K21" r:id="rId10" xr:uid="{76BCAEE7-503A-4BED-ABE9-78E18FB866C3}"/>
-    <hyperlink ref="K22" r:id="rId11" xr:uid="{4C237AF4-3BD4-4478-BD72-F5C21CF99AA0}"/>
-    <hyperlink ref="K24" r:id="rId12" xr:uid="{DF13DF4C-4E46-4724-B986-6919C7B9A2B7}"/>
-    <hyperlink ref="K23" r:id="rId13" xr:uid="{51873DD3-C757-450B-AA93-49F2400DD6EF}"/>
-    <hyperlink ref="K25" r:id="rId14" xr:uid="{2D264AEE-B490-4187-A96D-F0ADB0D77D26}"/>
-    <hyperlink ref="K27" r:id="rId15" xr:uid="{3788A9CB-CFBA-439C-AFC1-72E941F5FF57}"/>
-    <hyperlink ref="K26" r:id="rId16" xr:uid="{579107B7-0D63-4828-A9AF-FB3DCED7153E}"/>
-    <hyperlink ref="K28" r:id="rId17" xr:uid="{E3C74BE8-15D1-45CE-92A6-78EAB692D0BD}"/>
+    <hyperlink ref="K15" r:id="rId3" xr:uid="{0B1F06FA-1929-4E1A-98A7-34D136D52CF6}"/>
+    <hyperlink ref="K14" r:id="rId4" xr:uid="{E2A9D7CC-272C-40AF-9EF9-FAF3937AB8E8}"/>
+    <hyperlink ref="K16" r:id="rId5" xr:uid="{1701D2AC-1D12-4120-B7A9-59BCC9A31EAE}"/>
+    <hyperlink ref="K18" r:id="rId6" xr:uid="{232EB1C0-EE65-447D-818E-9490B97E4F3B}"/>
+    <hyperlink ref="K17" r:id="rId7" xr:uid="{2AEA6C8E-9ECA-4FB4-B8C5-D2FCE5320757}"/>
+    <hyperlink ref="K19" r:id="rId8" xr:uid="{76BCAEE7-503A-4BED-ABE9-78E18FB866C3}"/>
+    <hyperlink ref="K20" r:id="rId9" xr:uid="{4C237AF4-3BD4-4478-BD72-F5C21CF99AA0}"/>
+    <hyperlink ref="K22" r:id="rId10" xr:uid="{DF13DF4C-4E46-4724-B986-6919C7B9A2B7}"/>
+    <hyperlink ref="K21" r:id="rId11" xr:uid="{51873DD3-C757-450B-AA93-49F2400DD6EF}"/>
+    <hyperlink ref="K23" r:id="rId12" xr:uid="{2D264AEE-B490-4187-A96D-F0ADB0D77D26}"/>
+    <hyperlink ref="K25" r:id="rId13" xr:uid="{3788A9CB-CFBA-439C-AFC1-72E941F5FF57}"/>
+    <hyperlink ref="K24" r:id="rId14" xr:uid="{579107B7-0D63-4828-A9AF-FB3DCED7153E}"/>
+    <hyperlink ref="K26" r:id="rId15" xr:uid="{E3C74BE8-15D1-45CE-92A6-78EAB692D0BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2736614173228347" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId18"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId16"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="13" max="53" man="1"/>
   </colBreaks>
-  <legacyDrawing r:id="rId19"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="475903d6-5b88-4d7a-ba78-d123e191ef42" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3274,19 +3266,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="475903d6-5b88-4d7a-ba78-d123e191ef42" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{635976DF-2941-4508-B3B6-F1CF25643BD3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDE66BE-7C4D-4D57-9569-773F449FD84D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1be38a3c-13c4-46e0-8a29-91f320e906cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="475903d6-5b88-4d7a-ba78-d123e191ef42"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3312,19 +3313,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDE66BE-7C4D-4D57-9569-773F449FD84D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{635976DF-2941-4508-B3B6-F1CF25643BD3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1be38a3c-13c4-46e0-8a29-91f320e906cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="475903d6-5b88-4d7a-ba78-d123e191ef42"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/_static/FormatoPlaneacionComputacionales2023-10.xlsx
+++ b/docs/_static/FormatoPlaneacionComputacionales2023-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731C752-2A53-47E8-B5C1-5055BF00EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115AB57-BBC4-44E6-911D-AFDB9684AD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>PROYECTO DOCENTE</t>
   </si>
@@ -369,12 +369,6 @@
   </si>
   <si>
     <t>Versión del curso del semestre anterior. No se verifica, se deja solo como referencia para consulta en caso de ser necesario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aseosrías </t>
-  </si>
-  <si>
-    <t>Terminar las unidades</t>
   </si>
 </sst>
 </file>
@@ -502,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1220,6 +1214,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1228,7 +1246,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,16 +1367,217 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,205 +1598,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2000,8 +2036,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="30" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2024,159 +2060,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
     </row>
     <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="112"/>
     </row>
     <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="84"/>
     </row>
     <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="85">
         <v>16816</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
     </row>
     <row r="8" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="74">
         <v>2</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="9">
         <v>96</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="93"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="9">
         <v>64</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="10">
         <v>32</v>
       </c>
@@ -2185,20 +2221,20 @@
       <c r="A9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
     </row>
     <row r="10" spans="1:13" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
@@ -2208,52 +2244,52 @@
         <v>43</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="91"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="46" t="s">
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="119"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="27" t="s">
         <v>5</v>
       </c>
@@ -2272,17 +2308,17 @@
       <c r="I12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="44" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="15"/>
@@ -2300,18 +2336,18 @@
         <v>69</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M13" s="41">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="121" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="7"/>
@@ -2336,11 +2372,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="7"/>
       <c r="E15" s="16" t="s">
         <v>63</v>
@@ -2362,95 +2398,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:13" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>66</v>
+      <c r="I16" s="19"/>
+      <c r="J16" s="125" t="s">
+        <v>64</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M16" s="42">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="120"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="22" t="s">
-        <v>64</v>
+      <c r="C17" s="123"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="126" t="s">
+        <v>66</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="41">
-        <v>0</v>
+      <c r="L17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="42">
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="19"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="22" t="s">
         <v>64</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="7"/>
       <c r="E19" s="16" t="s">
         <v>63</v>
@@ -2473,67 +2509,67 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>66</v>
+      <c r="I20" s="19"/>
+      <c r="J20" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="K20" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M20" s="42">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>61</v>
-      </c>
+      <c r="C21" s="57"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="22" t="s">
-        <v>64</v>
+      <c r="I21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="K21" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="41">
-        <v>0</v>
+      <c r="L21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="42">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="52" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="16" t="s">
         <v>63</v>
@@ -2548,48 +2584,46 @@
       <c r="K22" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>66</v>
+      <c r="I23" s="19"/>
+      <c r="J23" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="K23" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M23" s="42">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>62</v>
-      </c>
+      <c r="C24" s="53"/>
       <c r="D24" s="7"/>
       <c r="E24" s="16" t="s">
         <v>63</v>
@@ -2604,111 +2638,125 @@
       <c r="K24" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="22" t="s">
-        <v>64</v>
+      <c r="I25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="K25" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M25" s="42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="50" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="52" t="s">
+        <v>62</v>
+      </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>66</v>
+      <c r="I26" s="19"/>
+      <c r="J26" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="K26" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" s="42">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="L26" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="50" x14ac:dyDescent="0.25">
+      <c r="A27" s="120"/>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="8"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="J27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="50" x14ac:dyDescent="0.25">
+      <c r="A28" s="120"/>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="39"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="J28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="K28" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="42">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2722,10 +2770,13 @@
       <c r="J29" s="3"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="M29" s="42">
+        <f>SUM(M13:M28)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2742,7 +2793,7 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="23" t="s">
         <v>29</v>
       </c>
@@ -2759,175 +2810,186 @@
       <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="100" t="s">
+      <c r="J32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="102"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="109"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
       <c r="I33" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="115" t="s">
+      <c r="J33" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="117"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="80"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="103"/>
-      <c r="B34" s="110" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="112"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
       <c r="I34" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="94" t="s">
+      <c r="J34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="47"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="89"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="96"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
     </row>
     <row r="36" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="89"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="34"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="96"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="89"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="96"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="89"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="34"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="96"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
     </row>
     <row r="39" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="89"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="96"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="114"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="99"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="60"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="I12 I11:J11 L11 A11:C11 K11:K12 D17:M26 I13:M16 D11:H16 A13:B31 C13:C26 C27:M31" name="Rango1"/>
+    <protectedRange sqref="I12 I11:J11 L11 A11:C11 K11:K12 I17:M17 D11:H15 A13:B31 C13:C16 I13:M15 D16:M16 C26:M31 D25:M25 C18:M24" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="43">
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A11:A31"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="J38:M38"/>
     <mergeCell ref="J39:M39"/>
     <mergeCell ref="J40:M40"/>
@@ -2944,25 +3006,14 @@
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A11:A31"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Presencial, virtual, bimodal, a distancia, dual"</formula1>
     </dataValidation>
@@ -2975,17 +3026,17 @@
     <hyperlink ref="K13" r:id="rId2" xr:uid="{08B693DF-376B-428E-82B2-1F428EB9F2E1}"/>
     <hyperlink ref="K15" r:id="rId3" xr:uid="{0B1F06FA-1929-4E1A-98A7-34D136D52CF6}"/>
     <hyperlink ref="K14" r:id="rId4" xr:uid="{E2A9D7CC-272C-40AF-9EF9-FAF3937AB8E8}"/>
-    <hyperlink ref="K16" r:id="rId5" xr:uid="{1701D2AC-1D12-4120-B7A9-59BCC9A31EAE}"/>
-    <hyperlink ref="K18" r:id="rId6" xr:uid="{232EB1C0-EE65-447D-818E-9490B97E4F3B}"/>
-    <hyperlink ref="K17" r:id="rId7" xr:uid="{2AEA6C8E-9ECA-4FB4-B8C5-D2FCE5320757}"/>
-    <hyperlink ref="K19" r:id="rId8" xr:uid="{76BCAEE7-503A-4BED-ABE9-78E18FB866C3}"/>
-    <hyperlink ref="K20" r:id="rId9" xr:uid="{4C237AF4-3BD4-4478-BD72-F5C21CF99AA0}"/>
-    <hyperlink ref="K22" r:id="rId10" xr:uid="{DF13DF4C-4E46-4724-B986-6919C7B9A2B7}"/>
-    <hyperlink ref="K21" r:id="rId11" xr:uid="{51873DD3-C757-450B-AA93-49F2400DD6EF}"/>
-    <hyperlink ref="K23" r:id="rId12" xr:uid="{2D264AEE-B490-4187-A96D-F0ADB0D77D26}"/>
-    <hyperlink ref="K25" r:id="rId13" xr:uid="{3788A9CB-CFBA-439C-AFC1-72E941F5FF57}"/>
-    <hyperlink ref="K24" r:id="rId14" xr:uid="{579107B7-0D63-4828-A9AF-FB3DCED7153E}"/>
-    <hyperlink ref="K26" r:id="rId15" xr:uid="{E3C74BE8-15D1-45CE-92A6-78EAB692D0BD}"/>
+    <hyperlink ref="K17" r:id="rId5" xr:uid="{1701D2AC-1D12-4120-B7A9-59BCC9A31EAE}"/>
+    <hyperlink ref="K19" r:id="rId6" xr:uid="{232EB1C0-EE65-447D-818E-9490B97E4F3B}"/>
+    <hyperlink ref="K18" r:id="rId7" xr:uid="{2AEA6C8E-9ECA-4FB4-B8C5-D2FCE5320757}"/>
+    <hyperlink ref="K20" r:id="rId8" xr:uid="{76BCAEE7-503A-4BED-ABE9-78E18FB866C3}"/>
+    <hyperlink ref="K21" r:id="rId9" xr:uid="{4C237AF4-3BD4-4478-BD72-F5C21CF99AA0}"/>
+    <hyperlink ref="K23" r:id="rId10" xr:uid="{DF13DF4C-4E46-4724-B986-6919C7B9A2B7}"/>
+    <hyperlink ref="K22" r:id="rId11" xr:uid="{51873DD3-C757-450B-AA93-49F2400DD6EF}"/>
+    <hyperlink ref="K27" r:id="rId12" xr:uid="{2EF568A9-0FBE-4EC7-9A76-EE684CC95999}"/>
+    <hyperlink ref="K16" r:id="rId13" xr:uid="{9FBED931-82D1-4E9D-BE69-1EC9A24002A5}"/>
+    <hyperlink ref="K25" r:id="rId14" xr:uid="{7C32FCDD-280D-4398-89DC-44AC86CE1223}"/>
+    <hyperlink ref="K24" r:id="rId15" xr:uid="{83435D28-77A7-4BF9-9E80-D3C71FFC2B60}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2736614173228347" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2998,13 +3049,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="475903d6-5b88-4d7a-ba78-d123e191ef42" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3266,28 +3316,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="475903d6-5b88-4d7a-ba78-d123e191ef42" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDE66BE-7C4D-4D57-9569-773F449FD84D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{635976DF-2941-4508-B3B6-F1CF25643BD3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1be38a3c-13c4-46e0-8a29-91f320e906cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="475903d6-5b88-4d7a-ba78-d123e191ef42"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3313,9 +3354,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{635976DF-2941-4508-B3B6-F1CF25643BD3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDE66BE-7C4D-4D57-9569-773F449FD84D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1be38a3c-13c4-46e0-8a29-91f320e906cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="475903d6-5b88-4d7a-ba78-d123e191ef42"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>